--- a/Template/Skills.xlsx
+++ b/Template/Skills.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\trim0\Documents\source\ProjectBattleArena\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{703C4C75-536B-4582-BC06-939D207452CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78CAB1AE-CEA8-464A-B103-3FF615ECB551}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="26">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -46,10 +46,6 @@
     <t>Int32</t>
   </si>
   <si>
-    <t>StringId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -87,15 +83,46 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Cost</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>BasicStrongAttack</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>BasicStrongRangedAttack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NeedCost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Effect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TargetType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OneNearbyEnemy</t>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RefTemplate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillEffects</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RefTemplateField</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BasicAttackEffect</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -421,10 +448,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -433,37 +460,47 @@
     <col min="3" max="3" width="10.58203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.58203125" customWidth="1"/>
     <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.75" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+        <v>17</v>
+      </c>
+      <c r="F1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1000</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -471,16 +508,22 @@
       <c r="E2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>1001</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -488,16 +531,22 @@
       <c r="E3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>1002</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -505,22 +554,34 @@
       <c r="E4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>1003</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5">
         <v>3</v>
+      </c>
+      <c r="F5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -532,23 +593,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2181B41-2634-4EEE-8310-849A71C5CE68}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:D5"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="16.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.58203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.75" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.33203125" customWidth="1"/>
     <col min="8" max="8" width="8.58203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.75" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.58203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -559,10 +621,16 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -576,9 +644,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -587,26 +655,26 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
         <v>14</v>
       </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" t="b">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -618,9 +686,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -630,6 +698,40 @@
       </c>
       <c r="D6" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="b">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8" t="b">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Template/Skills.xlsx
+++ b/Template/Skills.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\trim0\Documents\source\ProjectBattleArena\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78CAB1AE-CEA8-464A-B103-3FF615ECB551}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C9468EA-64A6-4D32-B797-F03E698C26EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="31">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -123,6 +123,26 @@
   </si>
   <si>
     <t>BasicAttackEffect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Effets</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>class</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Member</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Effects</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Max</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -166,8 +186,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -448,10 +471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -462,71 +485,61 @@
     <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="F1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" t="s">
         <v>13</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D2" t="s">
         <v>12</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E2" t="s">
         <v>17</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F2" t="s">
         <v>19</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G2" t="s">
         <v>18</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A3">
         <v>1000</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="D2">
+      <c r="D3">
         <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A3">
-        <v>1001</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -537,22 +550,25 @@
       <c r="G3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="H3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
         <v>0</v>
-      </c>
-      <c r="E4">
-        <v>3</v>
       </c>
       <c r="F4" t="s">
         <v>20</v>
@@ -560,19 +576,22 @@
       <c r="G4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="H4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -583,8 +602,41 @@
       <c r="G5" t="s">
         <v>25</v>
       </c>
+      <c r="H5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>1003</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" t="s">
+        <v>30</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -593,10 +645,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2181B41-2634-4EEE-8310-849A71C5CE68}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -610,7 +662,7 @@
     <col min="10" max="10" width="8.58203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -629,8 +681,14 @@
       <c r="F1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -644,7 +702,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -658,7 +716,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -672,7 +730,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -686,7 +744,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -700,37 +758,57 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" t="b">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" t="s">
         <v>19</v>
       </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7" t="b">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="H7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="b">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
         <v>18</v>
       </c>
-      <c r="B8">
-        <v>2</v>
-      </c>
-      <c r="C8" t="b">
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="b">
         <v>0</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E9" t="s">
         <v>23</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F9" t="s">
         <v>0</v>
       </c>
     </row>

--- a/Template/Skills.xlsx
+++ b/Template/Skills.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\trim0\Documents\source\ProjectBattleArena\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C9468EA-64A6-4D32-B797-F03E698C26EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8872473-CAB2-4D81-87A6-739082E2A9F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="28">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -50,12 +50,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SwordMan</t>
-  </si>
-  <si>
-    <t>Wizard</t>
-  </si>
-  <si>
     <t>String</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -75,10 +69,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>JobType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>enum</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -103,9 +93,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>OneNearbyEnemy</t>
-  </si>
-  <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -144,6 +131,9 @@
   <si>
     <t>Max</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HighAggro</t>
   </si>
 </sst>
 </file>
@@ -471,35 +461,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:H6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="24.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.58203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.58203125" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.58203125" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="F1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="E1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -507,135 +496,120 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>1000</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
-      <c r="E3">
-        <v>0</v>
+      <c r="E3" t="s">
+        <v>27</v>
       </c>
       <c r="F3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>1001</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>27</v>
       </c>
       <c r="F4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>1002</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
+        <v>12</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
         <v>3</v>
       </c>
+      <c r="E5" t="s">
+        <v>27</v>
+      </c>
       <c r="F5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G5" t="s">
-        <v>25</v>
-      </c>
-      <c r="H5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>1003</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" t="s">
-        <v>7</v>
+        <v>13</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
         <v>3</v>
       </c>
+      <c r="E6" t="s">
+        <v>27</v>
+      </c>
       <c r="F6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -645,10 +619,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2181B41-2634-4EEE-8310-849A71C5CE68}">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -673,19 +647,19 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" t="s">
         <v>24</v>
       </c>
-      <c r="G1" t="s">
-        <v>28</v>
-      </c>
       <c r="H1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
@@ -713,12 +687,12 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -727,12 +701,12 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -746,69 +720,55 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6" t="b">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>4</v>
+        <v>23</v>
+      </c>
+      <c r="G6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" t="b">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="b">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" t="s">
         <v>19</v>
       </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8" t="b">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9" t="b">
-        <v>0</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="F8" t="s">
         <v>0</v>
       </c>
     </row>

--- a/Template/Skills.xlsx
+++ b/Template/Skills.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\trim0\Documents\source\ProjectBattleArena\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8872473-CAB2-4D81-87A6-739082E2A9F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDB79D8C-4097-4D31-9272-4E06DDE243EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="46200" yWindow="2175" windowWidth="19200" windowHeight="11265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="21">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -69,10 +69,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>enum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>BasicStrongAttack</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -89,10 +85,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TargetType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -113,27 +105,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Effets</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>class</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Member</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Effects</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Max</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HighAggro</t>
   </si>
 </sst>
 </file>
@@ -176,11 +149,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -461,10 +431,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -474,143 +444,98 @@
     <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="E1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
         <v>5</v>
       </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>1000</v>
+      </c>
       <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>14</v>
+        <v>8</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5">
         <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A6">
-        <v>1003</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>3</v>
-      </c>
-      <c r="E6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -619,10 +544,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2181B41-2634-4EEE-8310-849A71C5CE68}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="F8" sqref="F8:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -630,13 +555,12 @@
     <col min="1" max="1" width="16.75" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" customWidth="1"/>
-    <col min="8" max="8" width="8.58203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.75" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.58203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.58203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.58203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -650,19 +574,16 @@
         <v>7</v>
       </c>
       <c r="E1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" t="s">
         <v>18</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>20</v>
       </c>
-      <c r="G1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -676,7 +597,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -690,7 +611,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -704,9 +625,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -718,57 +639,23 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B6">
         <v>2</v>
       </c>
       <c r="C6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7" t="b">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8" t="b">
-        <v>0</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="E6" t="s">
         <v>17</v>
       </c>
-      <c r="E8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="F6" t="s">
         <v>0</v>
       </c>
     </row>

--- a/Template/Skills.xlsx
+++ b/Template/Skills.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\trim0\Documents\source\ProjectBattleArena\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDB79D8C-4097-4D31-9272-4E06DDE243EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67713799-7F4A-42F6-884A-D0F7068A3346}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="46200" yWindow="2175" windowWidth="19200" windowHeight="11265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -65,47 +65,47 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>BasicStrongAttack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BasicStrongRangedAttack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NeedCost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Effect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RefTemplate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillEffects</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RefTemplateField</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BasicAttackEffect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Member</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Range</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BasicStrongAttack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BasicStrongRangedAttack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NeedCost</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Effect</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RefTemplate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SkillEffects</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RefTemplateField</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BasicAttackEffect</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Member</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -433,18 +433,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="24.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.58203125" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
@@ -455,16 +454,16 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D1" t="s">
         <v>13</v>
       </c>
       <c r="E1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
@@ -477,11 +476,11 @@
       <c r="C2">
         <v>0</v>
       </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2" t="s">
-        <v>19</v>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
@@ -492,13 +491,13 @@
         <v>9</v>
       </c>
       <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3" t="s">
-        <v>19</v>
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
@@ -506,16 +505,16 @@
         <v>1002</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
         <v>3</v>
       </c>
-      <c r="E4" t="s">
-        <v>19</v>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
@@ -523,16 +522,16 @@
         <v>1003</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
         <v>3</v>
       </c>
-      <c r="E5" t="s">
-        <v>19</v>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -546,8 +545,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2181B41-2634-4EEE-8310-849A71C5CE68}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8:F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -574,13 +573,13 @@
         <v>7</v>
       </c>
       <c r="E1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
@@ -613,7 +612,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -630,33 +629,33 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>4</v>
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Template/Skills.xlsx
+++ b/Template/Skills.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\trim0\Documents\source\ProjectBattleArena\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67713799-7F4A-42F6-884A-D0F7068A3346}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15D21EFF-DE2E-472D-94A8-6B4C5E6C68AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="27">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -106,6 +106,30 @@
   </si>
   <si>
     <t>Range</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsCasting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CastingTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fireball</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FireballEffect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProportionalDamageFromLostHpEffect</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -431,22 +455,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="24.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.75" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.25" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -465,8 +490,14 @@
       <c r="F1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1000</v>
       </c>
@@ -482,8 +513,14 @@
       <c r="F2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>1001</v>
       </c>
@@ -499,8 +536,14 @@
       <c r="F3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>1002</v>
       </c>
@@ -516,8 +559,14 @@
       <c r="F4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>1003</v>
       </c>
@@ -532,6 +581,38 @@
       </c>
       <c r="F5">
         <v>1</v>
+      </c>
+      <c r="G5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>1004</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>
@@ -543,10 +624,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2181B41-2634-4EEE-8310-849A71C5CE68}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -658,6 +739,34 @@
         <v>4</v>
       </c>
     </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="b">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="b">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Template/Skills.xlsx
+++ b/Template/Skills.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\trim0\Documents\source\ProjectBattleArena\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15D21EFF-DE2E-472D-94A8-6B4C5E6C68AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F79DEF38-9C71-4325-9203-E3125CB6A537}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="26">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -126,10 +126,6 @@
   </si>
   <si>
     <t>FireballEffect</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ProportionalDamageFromLostHpEffect</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -458,7 +454,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -600,9 +596,6 @@
         <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" t="s">
         <v>25</v>
       </c>
       <c r="F6">

--- a/Template/Skills.xlsx
+++ b/Template/Skills.xlsx
@@ -8,25 +8,36 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\trim0\Documents\source\ProjectBattleArena\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F79DEF38-9C71-4325-9203-E3125CB6A537}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C602605C-C5C7-4EA4-883A-7E9EF63B267B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3456" yWindow="3456" windowWidth="23040" windowHeight="13644" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
     <sheet name="Define" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="37">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -121,12 +132,50 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>FireballEffect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Fireball</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FireballEffect</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UseCharacter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SwordMan</t>
+  </si>
+  <si>
+    <t>Wizard</t>
+  </si>
+  <si>
+    <t>GradeType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>Rare</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Epic</t>
+  </si>
+  <si>
+    <t>Legendary</t>
   </si>
 </sst>
 </file>
@@ -451,23 +500,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1:M1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="24.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.69921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.69921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.19921875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -475,137 +527,279 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" t="s">
         <v>12</v>
-      </c>
-      <c r="D1" t="s">
-        <v>13</v>
       </c>
       <c r="E1" t="s">
         <v>13</v>
       </c>
       <c r="F1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" t="s">
         <v>20</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>21</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1000</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
         <v>18</v>
       </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>1001</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
         <v>18</v>
       </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>1002</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>3</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>18</v>
       </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>1003</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>3</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>18</v>
       </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5" t="s">
+        <v>29</v>
+      </c>
+      <c r="K5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>1004</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" t="str">
+        <f>_xlfn.CONCAT(C6,K6)</f>
+        <v>FireballNormal</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6" t="s">
         <v>24</v>
       </c>
-      <c r="C6">
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1000</v>
+      </c>
+      <c r="J6" t="s">
+        <v>29</v>
+      </c>
+      <c r="K6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>1005</v>
+      </c>
+      <c r="B7" t="str">
+        <f>_xlfn.CONCAT(C7,K7)</f>
+        <v>FireballRare</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7">
         <v>3</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7" t="b">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1000</v>
+      </c>
+      <c r="J7" t="s">
+        <v>29</v>
+      </c>
+      <c r="K7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>1006</v>
+      </c>
+      <c r="B8" t="str">
+        <f>_xlfn.CONCAT(C8,K8)</f>
+        <v>FireballEpic</v>
+      </c>
+      <c r="C8" t="s">
         <v>25</v>
       </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6" t="b">
-        <v>1</v>
-      </c>
-      <c r="H6">
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8" t="b">
+        <v>1</v>
+      </c>
+      <c r="I8">
         <v>1000</v>
+      </c>
+      <c r="J8" t="s">
+        <v>29</v>
+      </c>
+      <c r="K8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>1007</v>
+      </c>
+      <c r="B9" t="str">
+        <f>_xlfn.CONCAT(C9,K9)</f>
+        <v>FireballLegendary</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9" t="b">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1000</v>
+      </c>
+      <c r="J9" t="s">
+        <v>29</v>
+      </c>
+      <c r="K9" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -617,23 +811,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2181B41-2634-4EEE-8310-849A71C5CE68}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="16.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.58203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.75" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.58203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.69921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.69921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.59765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.69921875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -656,7 +850,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -670,7 +864,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -684,7 +878,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -698,7 +892,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -718,7 +912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -732,7 +926,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -746,7 +940,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -758,6 +952,40 @@
       </c>
       <c r="D8" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="b">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="b">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/Template/Skills.xlsx
+++ b/Template/Skills.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\trim0\Documents\source\ProjectBattleArena\Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Source\ProjectBattleArena\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C602605C-C5C7-4EA4-883A-7E9EF63B267B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B76B0DA-E6BE-4537-94A2-2A682270EA01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3456" yWindow="3456" windowWidth="23040" windowHeight="13644" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2025" yWindow="4125" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="36">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -84,10 +84,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>NeedCost</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Effect</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -116,22 +112,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Range</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IsCasting</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bool</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CastingTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>FireballEffect</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -139,28 +119,6 @@
     <t>Fireball</t>
   </si>
   <si>
-    <t>UseCharacter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Character</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SwordMan</t>
-  </si>
-  <si>
-    <t>Wizard</t>
-  </si>
-  <si>
-    <t>GradeType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>enum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Normal</t>
   </si>
   <si>
@@ -176,6 +134,46 @@
   </si>
   <si>
     <t>Legendary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FireballNormal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FireballRare</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FireballEpic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FireballLegendary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#GradeType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UppercutNormal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UppercutRare</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UppercutEpic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UppercutLegendary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Uppercut</t>
   </si>
 </sst>
 </file>
@@ -500,26 +498,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:M1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="23.296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.69921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="36.69921875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.19921875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.296875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.296875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -527,279 +521,208 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="D1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" t="s">
         <v>12</v>
       </c>
-      <c r="E1" t="s">
-        <v>13</v>
-      </c>
       <c r="F1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1000</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="D2">
-        <v>0</v>
+      <c r="D2" t="s">
+        <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1001</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="D3">
-        <v>0</v>
+      <c r="D3" t="s">
+        <v>21</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1002</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="D4">
-        <v>3</v>
+      <c r="D4" t="s">
+        <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4" t="s">
-        <v>28</v>
-      </c>
-      <c r="K4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1003</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
-      <c r="D5">
-        <v>3</v>
+      <c r="D5" t="s">
+        <v>21</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5" t="s">
-        <v>29</v>
-      </c>
-      <c r="K5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1004</v>
       </c>
-      <c r="B6" t="str">
-        <f>_xlfn.CONCAT(C6,K6)</f>
-        <v>FireballNormal</v>
+      <c r="B6" t="s">
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6">
-        <v>3</v>
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
       </c>
       <c r="E6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I6">
-        <v>1000</v>
-      </c>
-      <c r="J6" t="s">
-        <v>29</v>
-      </c>
-      <c r="K6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1005</v>
       </c>
-      <c r="B7" t="str">
-        <f>_xlfn.CONCAT(C7,K7)</f>
-        <v>FireballRare</v>
+      <c r="B7" t="s">
+        <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7">
-        <v>3</v>
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
       </c>
       <c r="E7" t="s">
-        <v>24</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7" t="b">
-        <v>1</v>
-      </c>
-      <c r="I7">
-        <v>1000</v>
-      </c>
-      <c r="J7" t="s">
-        <v>29</v>
-      </c>
-      <c r="K7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1006</v>
       </c>
-      <c r="B8" t="str">
-        <f>_xlfn.CONCAT(C8,K8)</f>
-        <v>FireballEpic</v>
+      <c r="B8" t="s">
+        <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8">
-        <v>3</v>
+        <v>20</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
       </c>
       <c r="E8" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8" t="b">
-        <v>1</v>
-      </c>
-      <c r="I8">
-        <v>1000</v>
-      </c>
-      <c r="J8" t="s">
-        <v>29</v>
-      </c>
-      <c r="K8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1007</v>
       </c>
-      <c r="B9" t="str">
-        <f>_xlfn.CONCAT(C9,K9)</f>
-        <v>FireballLegendary</v>
+      <c r="B9" t="s">
+        <v>29</v>
       </c>
       <c r="C9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" t="s">
         <v>25</v>
       </c>
-      <c r="D9">
-        <v>3</v>
-      </c>
       <c r="E9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>1008</v>
+      </c>
+      <c r="B10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>1009</v>
+      </c>
+      <c r="B11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>1010</v>
+      </c>
+      <c r="B12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="H9" t="b">
-        <v>1</v>
-      </c>
-      <c r="I9">
-        <v>1000</v>
-      </c>
-      <c r="J9" t="s">
-        <v>29</v>
-      </c>
-      <c r="K9" t="s">
-        <v>36</v>
+      <c r="E12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>1011</v>
+      </c>
+      <c r="B13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -811,23 +734,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2181B41-2634-4EEE-8310-849A71C5CE68}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.69921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.69921875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.59765625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.69921875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.59765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -841,16 +764,16 @@
         <v>7</v>
       </c>
       <c r="E1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -864,7 +787,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -878,114 +801,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>12</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
         <v>13</v>
       </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5" t="b">
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" t="s">
         <v>0</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6" t="b">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7" t="b">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8" t="b">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9" t="b">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10" t="b">
-        <v>1</v>
-      </c>
-      <c r="D10" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/Template/Skills.xlsx
+++ b/Template/Skills.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Source\ProjectBattleArena\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B76B0DA-E6BE-4537-94A2-2A682270EA01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26B0C390-90DA-4657-A283-F5741285F576}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2025" yWindow="4125" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="37">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -174,6 +174,10 @@
   </si>
   <si>
     <t>Uppercut</t>
+  </si>
+  <si>
+    <t>CancelCastingEffect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -500,8 +504,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -510,7 +514,7 @@
     <col min="3" max="3" width="24.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="36.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -673,6 +677,9 @@
       <c r="E10" t="s">
         <v>17</v>
       </c>
+      <c r="F10" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
@@ -690,6 +697,9 @@
       <c r="E11" t="s">
         <v>17</v>
       </c>
+      <c r="F11" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
@@ -707,6 +717,9 @@
       <c r="E12" t="s">
         <v>17</v>
       </c>
+      <c r="F12" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
@@ -723,6 +736,9 @@
       </c>
       <c r="E13" t="s">
         <v>17</v>
+      </c>
+      <c r="F13" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/Template/Skills.xlsx
+++ b/Template/Skills.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Source\ProjectBattleArena\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26B0C390-90DA-4657-A283-F5741285F576}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00730A8D-7861-4B15-AF6D-BC9BF6A2CDC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1905" yWindow="1905" windowWidth="22395" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -505,7 +505,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
